--- a/Tables/Sources/language/language_en.xlsx
+++ b/Tables/Sources/language/language_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22440" windowHeight="13520"/>
+    <workbookView windowWidth="27500" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="idleCut" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Lv:</t>
   </si>
   <si>
-    <t>Fixed_Title_TrainingRoom</t>
-  </si>
-  <si>
-    <t>Training Room</t>
-  </si>
-  <si>
     <t>Fixed_Title_Upgrade</t>
   </si>
   <si>
@@ -60,6 +54,18 @@
   <si>
     <t>Auto</t>
   </si>
+  <si>
+    <t>Fixed_Title_TrainingRoom</t>
+  </si>
+  <si>
+    <t>Training Room</t>
+  </si>
+  <si>
+    <t>Fixed_Title_LaboratoryRoom</t>
+  </si>
+  <si>
+    <t>LaboratoryRoom</t>
+  </si>
 </sst>
 </file>
 
@@ -67,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -149,21 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,8 +168,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,14 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,13 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +343,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,37 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,19 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,25 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +638,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,6 +697,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,36 +720,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +738,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2188,8 +2194,8 @@
   <sheetPr/>
   <dimension ref="A1:IN1266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4272727272727" defaultRowHeight="15" customHeight="1"/>
@@ -2264,12 +2270,8 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="5"/>
@@ -2284,12 +2286,20 @@
       <c r="B12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="5"/>
@@ -2967,7 +2977,7 @@
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" ht="14.5" spans="1:2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
     </row>

--- a/Tables/Sources/language/language_en.xlsx
+++ b/Tables/Sources/language/language_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27500" windowHeight="13520"/>
+    <workbookView windowWidth="23190" windowHeight="13450"/>
   </bookViews>
   <sheets>
     <sheet name="idleCut" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -66,14 +66,17 @@
   <si>
     <t>LaboratoryRoom</t>
   </si>
+  <si>
+    <t>Fixed_Title_Storage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -162,6 +165,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -176,21 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -199,14 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +232,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -240,14 +251,6 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +286,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -290,9 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +328,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +370,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,31 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,109 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,12 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +626,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -645,6 +663,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,40 +723,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,16 +741,16 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,112 +762,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2195,7 +2198,7 @@
   <dimension ref="A1:IN1266"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4272727272727" defaultRowHeight="15" customHeight="1"/>
@@ -2302,7 +2305,9 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:2">
